--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1994250.394452602</v>
+        <v>1987233.379560891</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717486.657899215</v>
+        <v>554603.6949378706</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>322.3821745354134</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>63.10802839794318</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>201.3302879382942</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>340.6116924031656</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>91.82580793753526</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>41.44879054419837</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>241.9284108258516</v>
       </c>
       <c r="H8" t="n">
-        <v>167.668292348691</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>107.8862013326873</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>123.6064608052457</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664122</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.5008511078726</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>177.6778654977374</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>41.51284162387385</v>
       </c>
       <c r="W19" t="n">
-        <v>208.2679477631763</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7779186742433</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505273781</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="V25" t="n">
-        <v>163.3521163017828</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.5535868730191</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>16.56305557306512</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633821</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>80.54581026652785</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>84.83836012930702</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>87.65220976161997</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>131.5208448420787</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>124.8388016343878</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1503.550419308995</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>1503.550419308995</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D2" t="n">
-        <v>1503.550419308995</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E2" t="n">
-        <v>1117.76216671075</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F2" t="n">
-        <v>706.7762619211428</v>
+        <v>689.1182491573336</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>271.1544410555205</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.689751284806</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.550419308995</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>524.7650569960363</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371763</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>411.9186004304258</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>411.9186004304258</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641987</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D7" t="n">
-        <v>400.4487670819046</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="E7" t="n">
-        <v>400.4487670819046</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="F7" t="n">
-        <v>253.5588195839943</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>253.5588195839943</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>95.81044701652442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1421.217123115521</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>1052.254606175109</v>
+        <v>785.9213106858003</v>
       </c>
       <c r="D8" t="n">
-        <v>1052.254606175109</v>
+        <v>785.9213106858003</v>
       </c>
       <c r="E8" t="n">
-        <v>1052.254606175109</v>
+        <v>785.9213106858003</v>
       </c>
       <c r="F8" t="n">
-        <v>641.2687013855018</v>
+        <v>778.9758099365969</v>
       </c>
       <c r="G8" t="n">
-        <v>223.3048932836887</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.682881376601</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1421.217123115521</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.8646000824888</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>404.8646000824888</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>404.8646000824888</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>404.8646000824888</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>404.8646000824888</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="X10" t="n">
-        <v>404.8646000824888</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.8646000824888</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>632.8915016987169</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.325632214049</v>
+        <v>1246.788571455606</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1567.123890985307</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324569</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324569</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324569</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324569</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383438</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324569</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324569</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324569</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324569</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M15" t="n">
-        <v>583.87361314235</v>
+        <v>990.9427979105849</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.414563824403</v>
+        <v>1335.463453548203</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2004.927214850862</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2525.22783658661</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>658.5774644300485</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M18" t="n">
-        <v>1426.94561082251</v>
+        <v>990.9427979105847</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.466266460128</v>
+        <v>1335.463453548203</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.759190940159</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="X19" t="n">
-        <v>836.769640042142</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,19 +5737,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
@@ -5761,7 +5761,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1645.803509761998</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1990.324165399616</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2239.077579483578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.7185717878251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>674.7185717878251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>524.6019323754894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>524.6019323754894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>524.6019323754894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5943,19 +5943,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247858</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W22" t="n">
-        <v>674.7185717878251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>674.7185717878251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.7185717878251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080544</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704855</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1771.161069819835</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>1333.914132879334</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.496962842373</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>816.5074119443557</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.7148328008255</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,28 +6247,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,22 +6302,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>618.8589595388347</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1942790685365</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N27" t="n">
-        <v>1548.780040143415</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
         <v>1797.533454227377</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6420,16 +6420,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414372</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250802</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>2626.17692130864</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>2856.140027176988</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>3176.47534670669</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>3980.886924970841</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>4372.471665987926</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601277</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632182</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.345012970579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,34 +6682,34 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>370.7000073195667</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L33" t="n">
-        <v>370.7000073195667</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>1139.068153712028</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1943.479731976179</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4326.074044281175</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>4157.137861353268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>4007.021221940932</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3859.108128358539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3859.108128358539</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3690.93280667836</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3540.514798226303</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.7234906252</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281175</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281175</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281175</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4326.074044281175</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4326.074044281175</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4326.074044281175</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,16 +6928,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1128.069692924718</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.069692924718</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>613.8011874802282</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>444.8650045523214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>444.8650045523214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>444.8650045523214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>444.8650045523214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>810.2549326310403</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>555.5704444251535</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X37" t="n">
-        <v>1016.242231453998</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y37" t="n">
-        <v>795.449652310468</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,43 +7159,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7219,7 +7219,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>965.863190108964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>965.863190108964</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>965.863190108964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.0706109654338</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,25 +7414,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>138.7081686256434</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>138.7081686256434</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>907.0763150181049</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1251.596970655723</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>392.2530740188876</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>223.3168910909806</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>223.3168910909806</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>223.3168910909806</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>223.3168910909806</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>392.2530740188876</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>392.2530740188876</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.770682899239</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2002.182261163389</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>93.27327540719938</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>446.9951891733747</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>269.087291265613</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>47.21390068518986</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567364</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.2088042811645</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>108.8451328388536</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>210.6248016999542</v>
       </c>
       <c r="W19" t="n">
-        <v>78.25505057341474</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>2.715649789134261</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583932</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>259.2629056590286</v>
       </c>
       <c r="V25" t="n">
-        <v>88.78552702204522</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>150.6837655255627</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>29.87343519774414</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>81.65520833407057</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>120.6167984817493</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>41.65476682898974</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879815.3844098449</v>
+        <v>879815.384409845</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098453</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="F2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721356</v>
+        <v>488786.3246721357</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="M2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26435,31 +26435,31 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933963</v>
+        <v>-298734.9902933962</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211483</v>
+        <v>291232.8889211484</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211488</v>
+        <v>291232.8889211486</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440525</v>
+        <v>-130123.4227037743</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="G6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328434</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="I6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731216</v>
       </c>
       <c r="J6" t="n">
-        <v>219587.9858402504</v>
+        <v>218613.3945805288</v>
       </c>
       <c r="K6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="L6" t="n">
-        <v>396011.2050328433</v>
+        <v>395036.6137731218</v>
       </c>
       <c r="M6" t="n">
-        <v>261210.1897990063</v>
+        <v>260235.5985392845</v>
       </c>
       <c r="N6" t="n">
-        <v>396011.2050328434</v>
+        <v>395036.6137731217</v>
       </c>
       <c r="O6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731219</v>
       </c>
       <c r="P6" t="n">
-        <v>396011.2050328435</v>
+        <v>395036.6137731217</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>91.40199548538163</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>260.8147443664139</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>23.70481751979008</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.26435333854579</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>147.877558680614</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.59524008539599</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>93.51683124813985</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>171.8557591949433</v>
       </c>
       <c r="H8" t="n">
-        <v>156.2544804156662</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>117.148904125397</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>162.9165375313453</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29249,7 +29249,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29684,7 +29684,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653279</v>
+        <v>87.78329382423999</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>246.4602505335669</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>171.3135836203302</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,19 +32077,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>440.4245404489238</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32098,16 +32098,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>29.24354573353469</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,13 +32314,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>40.11970191031691</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,13 +32329,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>215.4712995911232</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32551,10 +32551,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32563,19 +32563,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32703,46 +32703,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481346</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095117</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,43 +32864,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,13 +33019,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33037,25 +33037,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>267.7425307447074</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,31 +33262,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>144.2740676092149</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33499,13 +33499,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>246.0855942338727</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,16 +33514,16 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33736,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>225.9373985850584</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33976,28 +33976,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34134,7 +34134,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34210,31 +34210,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34389,10 +34389,10 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>373.0840485717865</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>519.3142458805504</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>788.4252027091441</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>99.33905938336227</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>272.4056674339019</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
@@ -35977,16 +35977,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>466.7373744234083</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36211,16 +36211,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>300.366690338724</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>780.1897625713874</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N27" t="n">
-        <v>615.7431930049277</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>395.5401424415</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>108.2441552595137</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
@@ -37162,7 +37162,7 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789686</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>458.2233641086434</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>551.4509935067211</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>329.577602926298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987233.379560891</v>
+        <v>1992172.642409923</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>554603.6949378706</v>
+        <v>661836.966868217</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>63.10802839794318</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>148.6114826991968</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>189.596843649344</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>138.5973240860328</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>91.82580793753526</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>29.4750245876584</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.9284108258516</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>249.369354485946</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>123.6064608052457</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>28.30910107930799</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.5008511078726</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>34.26584747916387</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>177.6778654977374</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.2681144302066</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>41.51284162387385</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>101.0041688483411</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>102.9208889409748</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>80.04606869856575</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>87.65220976161997</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>124.8388016343878</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.892406545185</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.104153946941</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>689.1182491573336</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>271.1544410555205</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>2214.475051914319</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1562.144220371538</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1176.355967773294</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>765.3700629836867</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>347.4062548818736</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2339.279987383381</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.511332113267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.045573852188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,46 +4649,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.3562320976883</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C8" t="n">
-        <v>785.9213106858003</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D8" t="n">
-        <v>785.9213106858003</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E8" t="n">
-        <v>785.9213106858003</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>778.9758099365969</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2214.054677008395</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1882.991789664824</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1530.22313439471</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1156.75737613363</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>603.2739732920446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>603.2739732920446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>632.8915016987169</v>
+        <v>425.8982501753269</v>
       </c>
       <c r="L12" t="n">
-        <v>1246.788571455606</v>
+        <v>1039.795319932216</v>
       </c>
       <c r="M12" t="n">
-        <v>1567.123890985307</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N12" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>293.9874647357258</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>563.1598612984388</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M15" t="n">
-        <v>990.9427979105849</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.463453548203</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O15" t="n">
-        <v>2004.927214850862</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.22783658661</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.518888196738</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W16" t="n">
-        <v>1064.759190940159</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X16" t="n">
-        <v>836.769640042142</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.9770608986119</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>990.9427979105847</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N18" t="n">
-        <v>1335.463453548203</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,22 +5703,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>633.0749397819058</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>633.0749397819058</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X19" t="n">
-        <v>633.0749397819058</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y19" t="n">
-        <v>412.2823606383756</v>
+        <v>670.514436100302</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,13 +5755,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466635</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407766</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>881.753191430675</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,31 +6211,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M27" t="n">
         <v>323.6581146605672</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>328.4897147593787</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>178.071706307322</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1099.383571417482</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>810.2549326310403</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>555.5704444251535</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y37" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7405,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.2530740188876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>223.3168910909806</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>223.3168910909806</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>223.3168910909806</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>223.3168910909806</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>620.2426249169049</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>392.2530740188876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.2530740188876</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -9014,7 +9014,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9251,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.2088042811645</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,16 +23706,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>251.9715049194135</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>108.8451328388536</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.56386575173072</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>210.6248016999542</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731874</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>185.2331835502363</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583932</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>259.2629056590286</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>122.7887664480623</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>30.37317676570625</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>133.8953512967693</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>41.65476682898974</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879815.384409845</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098452</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="M2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="M2" t="n">
-        <v>488786.3246721358</v>
-      </c>
       <c r="N2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721357</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26432,13 +26432,13 @@
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
@@ -26447,7 +26447,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933962</v>
+        <v>-298734.9902933961</v>
       </c>
       <c r="C6" t="n">
+        <v>291232.8889211485</v>
+      </c>
+      <c r="D6" t="n">
         <v>291232.8889211484</v>
       </c>
-      <c r="D6" t="n">
-        <v>291232.8889211486</v>
-      </c>
       <c r="E6" t="n">
-        <v>-130123.4227037743</v>
+        <v>-129246.2905700249</v>
       </c>
       <c r="F6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="G6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="H6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="I6" t="n">
-        <v>395036.6137731216</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="J6" t="n">
-        <v>218613.3945805288</v>
+        <v>219490.5267142782</v>
       </c>
       <c r="K6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068711</v>
       </c>
       <c r="L6" t="n">
-        <v>395036.6137731218</v>
+        <v>395913.7459068711</v>
       </c>
       <c r="M6" t="n">
-        <v>260235.5985392845</v>
+        <v>261112.7306730342</v>
       </c>
       <c r="N6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068714</v>
       </c>
       <c r="O6" t="n">
-        <v>395036.6137731219</v>
+        <v>395913.745906871</v>
       </c>
       <c r="P6" t="n">
-        <v>395036.6137731217</v>
+        <v>395913.7459068713</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>260.8147443664139</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>200.6294860182162</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275081</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>185.3254486783244</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>147.877558680614</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>53.59524008539599</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>256.8068496543193</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>171.8557591949433</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.854813022343251</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>75.9575352435776</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>162.9165375313453</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29249,7 +29249,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423999</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>246.4602505335669</v>
+        <v>205.3773723810138</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,25 +32080,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>249.3849633048139</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.24354573353469</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>215.4712995911232</v>
+        <v>249.3849633048139</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,25 +32545,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32791,7 +32791,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
@@ -32800,7 +32800,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -33262,19 +33262,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>147.8809216101175</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4869287318326</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33511,7 +33511,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,7 +33523,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33678,7 +33678,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -34131,7 +34131,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>373.0840485717865</v>
+        <v>332.0011704192334</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>500.651038137099</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.33905938336227</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>466.7373744234083</v>
+        <v>500.651038137099</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35986,7 +35986,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
@@ -36448,7 +36448,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>380.1668871337025</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>343.1107267700522</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37159,7 +37159,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37323,10 +37323,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
